--- a/Data/matchesBothSides.xlsx
+++ b/Data/matchesBothSides.xlsx
@@ -594,7 +594,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>14</v>
@@ -638,7 +638,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2">
-        <v>186</v>
+        <v>213</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>14</v>
@@ -682,7 +682,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="2">
-        <v>187</v>
+        <v>214</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>18</v>
@@ -726,7 +726,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="2">
-        <v>188</v>
+        <v>215</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>20</v>
@@ -770,7 +770,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="2">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>22</v>
@@ -814,7 +814,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="2">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>20</v>
@@ -858,7 +858,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="2">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>25</v>
@@ -902,7 +902,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="2">
-        <v>192</v>
+        <v>219</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>20</v>
@@ -946,7 +946,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="2">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>20</v>
@@ -990,7 +990,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="2">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>14</v>
@@ -1034,7 +1034,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="2">
-        <v>195</v>
+        <v>222</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>30</v>
@@ -1078,7 +1078,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="2">
-        <v>196</v>
+        <v>223</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>14</v>
@@ -1122,7 +1122,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="2">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>14</v>
@@ -1166,7 +1166,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="2">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>14</v>
@@ -1210,7 +1210,7 @@
         <v>16</v>
       </c>
       <c r="C16" s="2">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>14</v>
@@ -1254,7 +1254,7 @@
         <v>17</v>
       </c>
       <c r="C17" s="2">
-        <v>201</v>
+        <v>228</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>25</v>
@@ -1298,7 +1298,7 @@
         <v>18</v>
       </c>
       <c r="C18" s="2">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>20</v>
@@ -1342,7 +1342,7 @@
         <v>19</v>
       </c>
       <c r="C19" s="2">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>20</v>
@@ -1386,7 +1386,7 @@
         <v>20</v>
       </c>
       <c r="C20" s="2">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>14</v>
@@ -1430,7 +1430,7 @@
         <v>21</v>
       </c>
       <c r="C21" s="2">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>20</v>
@@ -1474,7 +1474,7 @@
         <v>22</v>
       </c>
       <c r="C22" s="2">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>14</v>
@@ -1518,7 +1518,7 @@
         <v>23</v>
       </c>
       <c r="C23" s="2">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>38</v>
@@ -1562,7 +1562,7 @@
         <v>24</v>
       </c>
       <c r="C24" s="2">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>20</v>
@@ -1606,7 +1606,7 @@
         <v>25</v>
       </c>
       <c r="C25" s="2">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>14</v>
@@ -1650,7 +1650,7 @@
         <v>26</v>
       </c>
       <c r="C26" s="2">
-        <v>210</v>
+        <v>237</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>14</v>
@@ -1694,7 +1694,7 @@
         <v>27</v>
       </c>
       <c r="C27" s="2">
-        <v>211</v>
+        <v>238</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>39</v>
@@ -1738,7 +1738,7 @@
         <v>1</v>
       </c>
       <c r="C28" s="2">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>18</v>
@@ -1782,7 +1782,7 @@
         <v>2</v>
       </c>
       <c r="C29" s="2">
-        <v>186</v>
+        <v>213</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>22</v>
@@ -1826,7 +1826,7 @@
         <v>3</v>
       </c>
       <c r="C30" s="2">
-        <v>187</v>
+        <v>214</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>22</v>
@@ -1870,7 +1870,7 @@
         <v>4</v>
       </c>
       <c r="C31" s="2">
-        <v>188</v>
+        <v>215</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>22</v>
@@ -1914,7 +1914,7 @@
         <v>5</v>
       </c>
       <c r="C32" s="2">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>22</v>
@@ -1958,7 +1958,7 @@
         <v>6</v>
       </c>
       <c r="C33" s="2">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>40</v>
@@ -2002,7 +2002,7 @@
         <v>7</v>
       </c>
       <c r="C34" s="2">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>22</v>
@@ -2046,7 +2046,7 @@
         <v>8</v>
       </c>
       <c r="C35" s="2">
-        <v>192</v>
+        <v>219</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>41</v>
@@ -2090,7 +2090,7 @@
         <v>9</v>
       </c>
       <c r="C36" s="2">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>22</v>
@@ -2134,7 +2134,7 @@
         <v>10</v>
       </c>
       <c r="C37" s="2">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>42</v>
@@ -2178,7 +2178,7 @@
         <v>11</v>
       </c>
       <c r="C38" s="2">
-        <v>195</v>
+        <v>222</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>22</v>
@@ -2222,7 +2222,7 @@
         <v>12</v>
       </c>
       <c r="C39" s="2">
-        <v>196</v>
+        <v>223</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>43</v>
@@ -2266,7 +2266,7 @@
         <v>13</v>
       </c>
       <c r="C40" s="2">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>22</v>
@@ -2310,7 +2310,7 @@
         <v>15</v>
       </c>
       <c r="C41" s="2">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>14</v>
@@ -2354,7 +2354,7 @@
         <v>16</v>
       </c>
       <c r="C42" s="2">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>22</v>
@@ -2398,7 +2398,7 @@
         <v>17</v>
       </c>
       <c r="C43" s="2">
-        <v>201</v>
+        <v>228</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>20</v>
@@ -2442,7 +2442,7 @@
         <v>18</v>
       </c>
       <c r="C44" s="2">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>22</v>
@@ -2486,7 +2486,7 @@
         <v>19</v>
       </c>
       <c r="C45" s="2">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>14</v>
@@ -2530,7 +2530,7 @@
         <v>20</v>
       </c>
       <c r="C46" s="2">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>22</v>
@@ -2574,7 +2574,7 @@
         <v>21</v>
       </c>
       <c r="C47" s="2">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>22</v>
@@ -2618,7 +2618,7 @@
         <v>22</v>
       </c>
       <c r="C48" s="2">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>39</v>
@@ -2662,7 +2662,7 @@
         <v>23</v>
       </c>
       <c r="C49" s="2">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>22</v>
@@ -2706,7 +2706,7 @@
         <v>24</v>
       </c>
       <c r="C50" s="2">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>25</v>
@@ -2750,7 +2750,7 @@
         <v>1</v>
       </c>
       <c r="C51" s="2">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>18</v>
@@ -2794,7 +2794,7 @@
         <v>2</v>
       </c>
       <c r="C52" s="2">
-        <v>186</v>
+        <v>213</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>25</v>
@@ -2838,7 +2838,7 @@
         <v>3</v>
       </c>
       <c r="C53" s="2">
-        <v>187</v>
+        <v>214</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>18</v>
@@ -2882,7 +2882,7 @@
         <v>4</v>
       </c>
       <c r="C54" s="2">
-        <v>188</v>
+        <v>215</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>20</v>
@@ -2926,7 +2926,7 @@
         <v>5</v>
       </c>
       <c r="C55" s="2">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>44</v>
@@ -2970,7 +2970,7 @@
         <v>6</v>
       </c>
       <c r="C56" s="2">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>45</v>
@@ -3014,7 +3014,7 @@
         <v>7</v>
       </c>
       <c r="C57" s="2">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>30</v>
@@ -3058,7 +3058,7 @@
         <v>8</v>
       </c>
       <c r="C58" s="2">
-        <v>192</v>
+        <v>219</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>45</v>
@@ -3102,7 +3102,7 @@
         <v>9</v>
       </c>
       <c r="C59" s="2">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>14</v>
@@ -3146,7 +3146,7 @@
         <v>10</v>
       </c>
       <c r="C60" s="2">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>18</v>
@@ -3190,7 +3190,7 @@
         <v>11</v>
       </c>
       <c r="C61" s="2">
-        <v>195</v>
+        <v>222</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>41</v>
@@ -3234,7 +3234,7 @@
         <v>12</v>
       </c>
       <c r="C62" s="2">
-        <v>196</v>
+        <v>223</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>18</v>
@@ -3278,7 +3278,7 @@
         <v>13</v>
       </c>
       <c r="C63" s="2">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>46</v>
@@ -3322,7 +3322,7 @@
         <v>14</v>
       </c>
       <c r="C64" s="2">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>18</v>
@@ -3366,7 +3366,7 @@
         <v>16</v>
       </c>
       <c r="C65" s="2">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>47</v>
@@ -3410,7 +3410,7 @@
         <v>17</v>
       </c>
       <c r="C66" s="2">
-        <v>201</v>
+        <v>228</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>18</v>
@@ -3454,7 +3454,7 @@
         <v>18</v>
       </c>
       <c r="C67" s="2">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>22</v>
@@ -3498,7 +3498,7 @@
         <v>19</v>
       </c>
       <c r="C68" s="2">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>45</v>
@@ -3542,7 +3542,7 @@
         <v>20</v>
       </c>
       <c r="C69" s="2">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>42</v>
@@ -3586,7 +3586,7 @@
         <v>21</v>
       </c>
       <c r="C70" s="2">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>18</v>
@@ -3630,7 +3630,7 @@
         <v>22</v>
       </c>
       <c r="C71" s="2">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>22</v>
@@ -3674,7 +3674,7 @@
         <v>23</v>
       </c>
       <c r="C72" s="2">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>18</v>
@@ -3718,7 +3718,7 @@
         <v>24</v>
       </c>
       <c r="C73" s="2">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>20</v>
@@ -3762,7 +3762,7 @@
         <v>25</v>
       </c>
       <c r="C74" s="2">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>14</v>
@@ -3806,7 +3806,7 @@
         <v>26</v>
       </c>
       <c r="C75" s="2">
-        <v>210</v>
+        <v>237</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>22</v>
@@ -3850,7 +3850,7 @@
         <v>27</v>
       </c>
       <c r="C76" s="2">
-        <v>211</v>
+        <v>238</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>14</v>
@@ -3894,7 +3894,7 @@
         <v>1</v>
       </c>
       <c r="C77" s="2">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>20</v>
@@ -3938,7 +3938,7 @@
         <v>2</v>
       </c>
       <c r="C78" s="2">
-        <v>186</v>
+        <v>213</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>25</v>
@@ -3982,7 +3982,7 @@
         <v>3</v>
       </c>
       <c r="C79" s="2">
-        <v>187</v>
+        <v>214</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>25</v>
@@ -4026,7 +4026,7 @@
         <v>4</v>
       </c>
       <c r="C80" s="2">
-        <v>188</v>
+        <v>215</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>22</v>
@@ -4070,7 +4070,7 @@
         <v>5</v>
       </c>
       <c r="C81" s="2">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>44</v>
@@ -4114,7 +4114,7 @@
         <v>6</v>
       </c>
       <c r="C82" s="2">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>25</v>
@@ -4158,7 +4158,7 @@
         <v>7</v>
       </c>
       <c r="C83" s="2">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>39</v>
@@ -4202,7 +4202,7 @@
         <v>8</v>
       </c>
       <c r="C84" s="2">
-        <v>192</v>
+        <v>219</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>25</v>
@@ -4246,7 +4246,7 @@
         <v>9</v>
       </c>
       <c r="C85" s="2">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>30</v>
@@ -4290,7 +4290,7 @@
         <v>10</v>
       </c>
       <c r="C86" s="2">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>25</v>
@@ -4334,7 +4334,7 @@
         <v>11</v>
       </c>
       <c r="C87" s="2">
-        <v>195</v>
+        <v>222</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>14</v>
@@ -4378,7 +4378,7 @@
         <v>13</v>
       </c>
       <c r="C88" s="2">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>25</v>
@@ -4422,7 +4422,7 @@
         <v>14</v>
       </c>
       <c r="C89" s="2">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>18</v>
@@ -4466,7 +4466,7 @@
         <v>15</v>
       </c>
       <c r="C90" s="2">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>25</v>
@@ -4510,7 +4510,7 @@
         <v>16</v>
       </c>
       <c r="C91" s="2">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>20</v>
@@ -4554,7 +4554,7 @@
         <v>17</v>
       </c>
       <c r="C92" s="2">
-        <v>201</v>
+        <v>228</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>25</v>
@@ -4598,7 +4598,7 @@
         <v>18</v>
       </c>
       <c r="C93" s="2">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>14</v>
@@ -4642,7 +4642,7 @@
         <v>19</v>
       </c>
       <c r="C94" s="2">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>25</v>
@@ -4686,7 +4686,7 @@
         <v>20</v>
       </c>
       <c r="C95" s="2">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="D95" s="3" t="s">
         <v>41</v>
@@ -4730,7 +4730,7 @@
         <v>21</v>
       </c>
       <c r="C96" s="2">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="D96" s="3" t="s">
         <v>25</v>
@@ -4774,7 +4774,7 @@
         <v>22</v>
       </c>
       <c r="C97" s="2">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="D97" s="3" t="s">
         <v>25</v>
@@ -4818,7 +4818,7 @@
         <v>23</v>
       </c>
       <c r="C98" s="2">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="D98" s="3" t="s">
         <v>25</v>
@@ -4862,7 +4862,7 @@
         <v>24</v>
       </c>
       <c r="C99" s="2">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="D99" s="3" t="s">
         <v>14</v>
@@ -4906,7 +4906,7 @@
         <v>1</v>
       </c>
       <c r="C100" s="2">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>38</v>
@@ -4950,7 +4950,7 @@
         <v>2</v>
       </c>
       <c r="C101" s="2">
-        <v>186</v>
+        <v>213</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>20</v>
@@ -4994,7 +4994,7 @@
         <v>3</v>
       </c>
       <c r="C102" s="2">
-        <v>187</v>
+        <v>214</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>38</v>
@@ -5038,7 +5038,7 @@
         <v>4</v>
       </c>
       <c r="C103" s="2">
-        <v>188</v>
+        <v>215</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>20</v>
@@ -5082,7 +5082,7 @@
         <v>5</v>
       </c>
       <c r="C104" s="2">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="D104" s="3" t="s">
         <v>44</v>
@@ -5126,7 +5126,7 @@
         <v>6</v>
       </c>
       <c r="C105" s="2">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="D105" s="3" t="s">
         <v>38</v>
@@ -5170,7 +5170,7 @@
         <v>7</v>
       </c>
       <c r="C106" s="2">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="D106" s="3" t="s">
         <v>20</v>
@@ -5214,7 +5214,7 @@
         <v>8</v>
       </c>
       <c r="C107" s="2">
-        <v>192</v>
+        <v>219</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>38</v>
@@ -5258,7 +5258,7 @@
         <v>9</v>
       </c>
       <c r="C108" s="2">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="D108" s="3" t="s">
         <v>25</v>
@@ -5302,7 +5302,7 @@
         <v>10</v>
       </c>
       <c r="C109" s="2">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="D109" s="3" t="s">
         <v>39</v>
@@ -5346,7 +5346,7 @@
         <v>11</v>
       </c>
       <c r="C110" s="2">
-        <v>195</v>
+        <v>222</v>
       </c>
       <c r="D110" s="3" t="s">
         <v>43</v>
@@ -5390,7 +5390,7 @@
         <v>12</v>
       </c>
       <c r="C111" s="2">
-        <v>196</v>
+        <v>223</v>
       </c>
       <c r="D111" s="3" t="s">
         <v>43</v>
@@ -5434,7 +5434,7 @@
         <v>14</v>
       </c>
       <c r="C112" s="2">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="D112" s="3" t="s">
         <v>14</v>
@@ -5478,7 +5478,7 @@
         <v>15</v>
       </c>
       <c r="C113" s="2">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="D113" s="3" t="s">
         <v>38</v>
@@ -5522,7 +5522,7 @@
         <v>16</v>
       </c>
       <c r="C114" s="2">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="D114" s="3" t="s">
         <v>38</v>
@@ -5566,7 +5566,7 @@
         <v>17</v>
       </c>
       <c r="C115" s="2">
-        <v>201</v>
+        <v>228</v>
       </c>
       <c r="D115" s="3" t="s">
         <v>22</v>
@@ -5610,7 +5610,7 @@
         <v>18</v>
       </c>
       <c r="C116" s="2">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="D116" s="3" t="s">
         <v>38</v>
@@ -5654,7 +5654,7 @@
         <v>19</v>
       </c>
       <c r="C117" s="2">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="D117" s="3" t="s">
         <v>45</v>
@@ -5698,7 +5698,7 @@
         <v>20</v>
       </c>
       <c r="C118" s="2">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="D118" s="3" t="s">
         <v>38</v>
@@ -5742,7 +5742,7 @@
         <v>21</v>
       </c>
       <c r="C119" s="2">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="D119" s="3" t="s">
         <v>22</v>
@@ -5786,7 +5786,7 @@
         <v>22</v>
       </c>
       <c r="C120" s="2">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="D120" s="3" t="s">
         <v>30</v>
@@ -5830,7 +5830,7 @@
         <v>23</v>
       </c>
       <c r="C121" s="2">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="D121" s="3" t="s">
         <v>38</v>
@@ -5874,7 +5874,7 @@
         <v>24</v>
       </c>
       <c r="C122" s="2">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="D122" s="3" t="s">
         <v>46</v>
@@ -5918,7 +5918,7 @@
         <v>1</v>
       </c>
       <c r="C123" s="2">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="D123" s="3" t="s">
         <v>14</v>
@@ -5962,7 +5962,7 @@
         <v>2</v>
       </c>
       <c r="C124" s="2">
-        <v>186</v>
+        <v>213</v>
       </c>
       <c r="D124" s="3" t="s">
         <v>20</v>
@@ -6006,7 +6006,7 @@
         <v>3</v>
       </c>
       <c r="C125" s="2">
-        <v>187</v>
+        <v>214</v>
       </c>
       <c r="D125" s="3" t="s">
         <v>14</v>
@@ -6050,7 +6050,7 @@
         <v>4</v>
       </c>
       <c r="C126" s="2">
-        <v>188</v>
+        <v>215</v>
       </c>
       <c r="D126" s="3" t="s">
         <v>20</v>
@@ -6094,7 +6094,7 @@
         <v>5</v>
       </c>
       <c r="C127" s="2">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="D127" s="3" t="s">
         <v>22</v>
@@ -6138,7 +6138,7 @@
         <v>6</v>
       </c>
       <c r="C128" s="2">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="D128" s="3" t="s">
         <v>14</v>
@@ -6182,7 +6182,7 @@
         <v>7</v>
       </c>
       <c r="C129" s="2">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="D129" s="3" t="s">
         <v>14</v>
@@ -6226,7 +6226,7 @@
         <v>8</v>
       </c>
       <c r="C130" s="2">
-        <v>192</v>
+        <v>219</v>
       </c>
       <c r="D130" s="3" t="s">
         <v>22</v>
@@ -6270,7 +6270,7 @@
         <v>9</v>
       </c>
       <c r="C131" s="2">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="D131" s="3" t="s">
         <v>39</v>
@@ -6314,7 +6314,7 @@
         <v>10</v>
       </c>
       <c r="C132" s="2">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="D132" s="3" t="s">
         <v>14</v>
@@ -6358,7 +6358,7 @@
         <v>11</v>
       </c>
       <c r="C133" s="2">
-        <v>195</v>
+        <v>222</v>
       </c>
       <c r="D133" s="3" t="s">
         <v>25</v>
@@ -6402,7 +6402,7 @@
         <v>12</v>
       </c>
       <c r="C134" s="2">
-        <v>196</v>
+        <v>223</v>
       </c>
       <c r="D134" s="3" t="s">
         <v>20</v>
@@ -6446,7 +6446,7 @@
         <v>13</v>
       </c>
       <c r="C135" s="2">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="D135" s="3" t="s">
         <v>14</v>
@@ -6490,7 +6490,7 @@
         <v>15</v>
       </c>
       <c r="C136" s="2">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="D136" s="3" t="s">
         <v>25</v>
@@ -6534,7 +6534,7 @@
         <v>16</v>
       </c>
       <c r="C137" s="2">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="D137" s="3" t="s">
         <v>14</v>
@@ -6578,7 +6578,7 @@
         <v>17</v>
       </c>
       <c r="C138" s="2">
-        <v>201</v>
+        <v>228</v>
       </c>
       <c r="D138" s="3" t="s">
         <v>20</v>
@@ -6622,7 +6622,7 @@
         <v>18</v>
       </c>
       <c r="C139" s="2">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="D139" s="3" t="s">
         <v>41</v>
@@ -6666,7 +6666,7 @@
         <v>19</v>
       </c>
       <c r="C140" s="2">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="D140" s="3" t="s">
         <v>20</v>
@@ -6710,7 +6710,7 @@
         <v>20</v>
       </c>
       <c r="C141" s="2">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="D141" s="3" t="s">
         <v>20</v>
@@ -6754,7 +6754,7 @@
         <v>21</v>
       </c>
       <c r="C142" s="2">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="D142" s="3" t="s">
         <v>20</v>
@@ -6798,7 +6798,7 @@
         <v>22</v>
       </c>
       <c r="C143" s="2">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="D143" s="3" t="s">
         <v>20</v>
@@ -6842,7 +6842,7 @@
         <v>23</v>
       </c>
       <c r="C144" s="2">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="D144" s="3" t="s">
         <v>18</v>
@@ -6886,7 +6886,7 @@
         <v>24</v>
       </c>
       <c r="C145" s="2">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="D145" s="3" t="s">
         <v>14</v>
@@ -6930,7 +6930,7 @@
         <v>1</v>
       </c>
       <c r="C146" s="2">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="D146" s="3" t="s">
         <v>14</v>
@@ -6974,7 +6974,7 @@
         <v>2</v>
       </c>
       <c r="C147" s="2">
-        <v>186</v>
+        <v>213</v>
       </c>
       <c r="D147" s="3" t="s">
         <v>14</v>
@@ -7018,7 +7018,7 @@
         <v>3</v>
       </c>
       <c r="C148" s="2">
-        <v>187</v>
+        <v>214</v>
       </c>
       <c r="D148" s="3" t="s">
         <v>14</v>
@@ -7062,7 +7062,7 @@
         <v>4</v>
       </c>
       <c r="C149" s="2">
-        <v>188</v>
+        <v>215</v>
       </c>
       <c r="D149" s="3" t="s">
         <v>39</v>
@@ -7106,7 +7106,7 @@
         <v>5</v>
       </c>
       <c r="C150" s="2">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="D150" s="3" t="s">
         <v>22</v>
@@ -7150,7 +7150,7 @@
         <v>6</v>
       </c>
       <c r="C151" s="2">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="D151" s="3" t="s">
         <v>14</v>
@@ -7194,7 +7194,7 @@
         <v>7</v>
       </c>
       <c r="C152" s="2">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="D152" s="3" t="s">
         <v>22</v>
@@ -7238,7 +7238,7 @@
         <v>8</v>
       </c>
       <c r="C153" s="2">
-        <v>192</v>
+        <v>219</v>
       </c>
       <c r="D153" s="3" t="s">
         <v>14</v>
@@ -7282,7 +7282,7 @@
         <v>9</v>
       </c>
       <c r="C154" s="2">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="D154" s="3" t="s">
         <v>14</v>
@@ -7326,7 +7326,7 @@
         <v>10</v>
       </c>
       <c r="C155" s="2">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="D155" s="3" t="s">
         <v>14</v>
@@ -7370,7 +7370,7 @@
         <v>11</v>
       </c>
       <c r="C156" s="2">
-        <v>195</v>
+        <v>222</v>
       </c>
       <c r="D156" s="3" t="s">
         <v>20</v>
@@ -7414,7 +7414,7 @@
         <v>12</v>
       </c>
       <c r="C157" s="2">
-        <v>196</v>
+        <v>223</v>
       </c>
       <c r="D157" s="3" t="s">
         <v>25</v>
@@ -7458,7 +7458,7 @@
         <v>13</v>
       </c>
       <c r="C158" s="2">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="D158" s="3" t="s">
         <v>14</v>
@@ -7502,7 +7502,7 @@
         <v>15</v>
       </c>
       <c r="C159" s="2">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="D159" s="3" t="s">
         <v>14</v>
@@ -7546,7 +7546,7 @@
         <v>16</v>
       </c>
       <c r="C160" s="2">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="D160" s="3" t="s">
         <v>38</v>
@@ -7590,7 +7590,7 @@
         <v>17</v>
       </c>
       <c r="C161" s="2">
-        <v>201</v>
+        <v>228</v>
       </c>
       <c r="D161" s="3" t="s">
         <v>20</v>
@@ -7634,7 +7634,7 @@
         <v>18</v>
       </c>
       <c r="C162" s="2">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="D162" s="3" t="s">
         <v>14</v>
@@ -7678,7 +7678,7 @@
         <v>19</v>
       </c>
       <c r="C163" s="2">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="D163" s="3" t="s">
         <v>22</v>
@@ -7722,7 +7722,7 @@
         <v>20</v>
       </c>
       <c r="C164" s="2">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="D164" s="3" t="s">
         <v>14</v>
@@ -7766,7 +7766,7 @@
         <v>21</v>
       </c>
       <c r="C165" s="2">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="D165" s="3" t="s">
         <v>14</v>
@@ -7810,7 +7810,7 @@
         <v>22</v>
       </c>
       <c r="C166" s="2">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="D166" s="3" t="s">
         <v>14</v>
@@ -7854,7 +7854,7 @@
         <v>23</v>
       </c>
       <c r="C167" s="2">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="D167" s="3" t="s">
         <v>20</v>
@@ -7898,7 +7898,7 @@
         <v>24</v>
       </c>
       <c r="C168" s="2">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="D168" s="3" t="s">
         <v>14</v>
@@ -7942,7 +7942,7 @@
         <v>25</v>
       </c>
       <c r="C169" s="2">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="D169" s="3" t="s">
         <v>14</v>
@@ -7986,7 +7986,7 @@
         <v>27</v>
       </c>
       <c r="C170" s="2">
-        <v>211</v>
+        <v>238</v>
       </c>
       <c r="D170" s="3" t="s">
         <v>14</v>
@@ -8030,7 +8030,7 @@
         <v>28</v>
       </c>
       <c r="C171" s="2">
-        <v>212</v>
+        <v>239</v>
       </c>
       <c r="D171" s="3" t="s">
         <v>14</v>
@@ -8074,7 +8074,7 @@
         <v>1</v>
       </c>
       <c r="C172" s="2">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="D172" s="3" t="s">
         <v>22</v>
@@ -8118,7 +8118,7 @@
         <v>2</v>
       </c>
       <c r="C173" s="2">
-        <v>186</v>
+        <v>213</v>
       </c>
       <c r="D173" s="3" t="s">
         <v>39</v>
@@ -8162,7 +8162,7 @@
         <v>3</v>
       </c>
       <c r="C174" s="2">
-        <v>187</v>
+        <v>214</v>
       </c>
       <c r="D174" s="3" t="s">
         <v>20</v>
@@ -8206,7 +8206,7 @@
         <v>4</v>
       </c>
       <c r="C175" s="2">
-        <v>188</v>
+        <v>215</v>
       </c>
       <c r="D175" s="3" t="s">
         <v>39</v>
@@ -8250,7 +8250,7 @@
         <v>5</v>
       </c>
       <c r="C176" s="2">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="D176" s="3" t="s">
         <v>48</v>
@@ -8294,7 +8294,7 @@
         <v>6</v>
       </c>
       <c r="C177" s="2">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="D177" s="3" t="s">
         <v>45</v>
@@ -8338,7 +8338,7 @@
         <v>7</v>
       </c>
       <c r="C178" s="2">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="D178" s="3" t="s">
         <v>39</v>
@@ -8382,7 +8382,7 @@
         <v>8</v>
       </c>
       <c r="C179" s="2">
-        <v>192</v>
+        <v>219</v>
       </c>
       <c r="D179" s="3" t="s">
         <v>20</v>
@@ -8426,7 +8426,7 @@
         <v>9</v>
       </c>
       <c r="C180" s="2">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="D180" s="3" t="s">
         <v>39</v>
@@ -8470,7 +8470,7 @@
         <v>10</v>
       </c>
       <c r="C181" s="2">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="D181" s="3" t="s">
         <v>39</v>
@@ -8514,7 +8514,7 @@
         <v>11</v>
       </c>
       <c r="C182" s="2">
-        <v>195</v>
+        <v>222</v>
       </c>
       <c r="D182" s="3" t="s">
         <v>22</v>
@@ -8558,7 +8558,7 @@
         <v>13</v>
       </c>
       <c r="C183" s="2">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="D183" s="3" t="s">
         <v>14</v>
@@ -8602,7 +8602,7 @@
         <v>14</v>
       </c>
       <c r="C184" s="2">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="D184" s="3" t="s">
         <v>39</v>
@@ -8646,7 +8646,7 @@
         <v>15</v>
       </c>
       <c r="C185" s="2">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="D185" s="3" t="s">
         <v>20</v>
@@ -8690,7 +8690,7 @@
         <v>16</v>
       </c>
       <c r="C186" s="2">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="D186" s="3" t="s">
         <v>39</v>
@@ -8734,7 +8734,7 @@
         <v>17</v>
       </c>
       <c r="C187" s="2">
-        <v>201</v>
+        <v>228</v>
       </c>
       <c r="D187" s="3" t="s">
         <v>39</v>
@@ -8778,7 +8778,7 @@
         <v>18</v>
       </c>
       <c r="C188" s="2">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="D188" s="3" t="s">
         <v>14</v>
@@ -8822,7 +8822,7 @@
         <v>19</v>
       </c>
       <c r="C189" s="2">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="D189" s="3" t="s">
         <v>39</v>
@@ -8866,7 +8866,7 @@
         <v>20</v>
       </c>
       <c r="C190" s="2">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="D190" s="3" t="s">
         <v>38</v>
@@ -8910,7 +8910,7 @@
         <v>21</v>
       </c>
       <c r="C191" s="2">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="D191" s="3" t="s">
         <v>25</v>
@@ -8954,7 +8954,7 @@
         <v>22</v>
       </c>
       <c r="C192" s="2">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="D192" s="3" t="s">
         <v>39</v>
@@ -8998,7 +8998,7 @@
         <v>23</v>
       </c>
       <c r="C193" s="2">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="D193" s="3" t="s">
         <v>20</v>
@@ -9042,7 +9042,7 @@
         <v>24</v>
       </c>
       <c r="C194" s="2">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="D194" s="3" t="s">
         <v>39</v>
@@ -9086,7 +9086,7 @@
         <v>25</v>
       </c>
       <c r="C195" s="2">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="D195" s="3" t="s">
         <v>39</v>
@@ -9130,7 +9130,7 @@
         <v>27</v>
       </c>
       <c r="C196" s="2">
-        <v>211</v>
+        <v>238</v>
       </c>
       <c r="D196" s="3" t="s">
         <v>39</v>
@@ -9174,7 +9174,7 @@
         <v>28</v>
       </c>
       <c r="C197" s="2">
-        <v>212</v>
+        <v>239</v>
       </c>
       <c r="D197" s="3" t="s">
         <v>14</v>
@@ -9218,7 +9218,7 @@
         <v>1</v>
       </c>
       <c r="C198" s="2">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="D198" s="3" t="s">
         <v>14</v>
@@ -9262,7 +9262,7 @@
         <v>2</v>
       </c>
       <c r="C199" s="2">
-        <v>186</v>
+        <v>213</v>
       </c>
       <c r="D199" s="3" t="s">
         <v>39</v>
@@ -9306,7 +9306,7 @@
         <v>3</v>
       </c>
       <c r="C200" s="2">
-        <v>187</v>
+        <v>214</v>
       </c>
       <c r="D200" s="3" t="s">
         <v>14</v>
@@ -9350,7 +9350,7 @@
         <v>4</v>
       </c>
       <c r="C201" s="2">
-        <v>188</v>
+        <v>215</v>
       </c>
       <c r="D201" s="3" t="s">
         <v>25</v>
@@ -9394,7 +9394,7 @@
         <v>5</v>
       </c>
       <c r="C202" s="2">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="D202" s="3" t="s">
         <v>22</v>
@@ -9438,7 +9438,7 @@
         <v>6</v>
       </c>
       <c r="C203" s="2">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="D203" s="3" t="s">
         <v>14</v>
@@ -9482,7 +9482,7 @@
         <v>7</v>
       </c>
       <c r="C204" s="2">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="D204" s="3" t="s">
         <v>14</v>
@@ -9526,7 +9526,7 @@
         <v>8</v>
       </c>
       <c r="C205" s="2">
-        <v>192</v>
+        <v>219</v>
       </c>
       <c r="D205" s="3" t="s">
         <v>38</v>
@@ -9570,7 +9570,7 @@
         <v>9</v>
       </c>
       <c r="C206" s="2">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="D206" s="3" t="s">
         <v>14</v>
@@ -9614,7 +9614,7 @@
         <v>10</v>
       </c>
       <c r="C207" s="2">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="D207" s="3" t="s">
         <v>22</v>
@@ -9658,7 +9658,7 @@
         <v>11</v>
       </c>
       <c r="C208" s="2">
-        <v>195</v>
+        <v>222</v>
       </c>
       <c r="D208" s="3" t="s">
         <v>14</v>
@@ -9702,7 +9702,7 @@
         <v>12</v>
       </c>
       <c r="C209" s="2">
-        <v>196</v>
+        <v>223</v>
       </c>
       <c r="D209" s="3" t="s">
         <v>14</v>
@@ -9746,7 +9746,7 @@
         <v>13</v>
       </c>
       <c r="C210" s="2">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="D210" s="3" t="s">
         <v>14</v>
@@ -9790,7 +9790,7 @@
         <v>15</v>
       </c>
       <c r="C211" s="2">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="D211" s="3" t="s">
         <v>41</v>
@@ -9834,7 +9834,7 @@
         <v>16</v>
       </c>
       <c r="C212" s="2">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="D212" s="3" t="s">
         <v>47</v>
@@ -9878,7 +9878,7 @@
         <v>17</v>
       </c>
       <c r="C213" s="2">
-        <v>201</v>
+        <v>228</v>
       </c>
       <c r="D213" s="3" t="s">
         <v>20</v>
@@ -9922,7 +9922,7 @@
         <v>18</v>
       </c>
       <c r="C214" s="2">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="D214" s="3" t="s">
         <v>14</v>
@@ -9966,7 +9966,7 @@
         <v>19</v>
       </c>
       <c r="C215" s="2">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="D215" s="3" t="s">
         <v>14</v>
@@ -10010,7 +10010,7 @@
         <v>20</v>
       </c>
       <c r="C216" s="2">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="D216" s="3" t="s">
         <v>14</v>
@@ -10054,7 +10054,7 @@
         <v>21</v>
       </c>
       <c r="C217" s="2">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="D217" s="3" t="s">
         <v>46</v>
@@ -10098,7 +10098,7 @@
         <v>22</v>
       </c>
       <c r="C218" s="2">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="D218" s="3" t="s">
         <v>14</v>
@@ -10142,7 +10142,7 @@
         <v>23</v>
       </c>
       <c r="C219" s="2">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="D219" s="3" t="s">
         <v>14</v>
@@ -10186,7 +10186,7 @@
         <v>24</v>
       </c>
       <c r="C220" s="2">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="D220" s="3" t="s">
         <v>30</v>
@@ -10230,7 +10230,7 @@
         <v>25</v>
       </c>
       <c r="C221" s="2">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="D221" s="3" t="s">
         <v>14</v>
@@ -10274,7 +10274,7 @@
         <v>26</v>
       </c>
       <c r="C222" s="2">
-        <v>210</v>
+        <v>237</v>
       </c>
       <c r="D222" s="3" t="s">
         <v>14</v>
@@ -10318,7 +10318,7 @@
         <v>1</v>
       </c>
       <c r="C223" s="2">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="D223" s="3" t="s">
         <v>14</v>
@@ -10362,7 +10362,7 @@
         <v>2</v>
       </c>
       <c r="C224" s="2">
-        <v>186</v>
+        <v>213</v>
       </c>
       <c r="D224" s="3" t="s">
         <v>14</v>
@@ -10406,7 +10406,7 @@
         <v>3</v>
       </c>
       <c r="C225" s="2">
-        <v>187</v>
+        <v>214</v>
       </c>
       <c r="D225" s="3" t="s">
         <v>38</v>
@@ -10450,7 +10450,7 @@
         <v>4</v>
       </c>
       <c r="C226" s="2">
-        <v>188</v>
+        <v>215</v>
       </c>
       <c r="D226" s="3" t="s">
         <v>14</v>
@@ -10494,7 +10494,7 @@
         <v>5</v>
       </c>
       <c r="C227" s="2">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="D227" s="3" t="s">
         <v>22</v>
@@ -10538,7 +10538,7 @@
         <v>6</v>
       </c>
       <c r="C228" s="2">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="D228" s="3" t="s">
         <v>41</v>
@@ -10582,7 +10582,7 @@
         <v>7</v>
       </c>
       <c r="C229" s="2">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="D229" s="3" t="s">
         <v>14</v>
@@ -10626,7 +10626,7 @@
         <v>8</v>
       </c>
       <c r="C230" s="2">
-        <v>192</v>
+        <v>219</v>
       </c>
       <c r="D230" s="3" t="s">
         <v>41</v>
@@ -10670,7 +10670,7 @@
         <v>9</v>
       </c>
       <c r="C231" s="2">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="D231" s="3" t="s">
         <v>14</v>
@@ -10714,7 +10714,7 @@
         <v>10</v>
       </c>
       <c r="C232" s="2">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="D232" s="3" t="s">
         <v>25</v>
@@ -10758,7 +10758,7 @@
         <v>11</v>
       </c>
       <c r="C233" s="2">
-        <v>195</v>
+        <v>222</v>
       </c>
       <c r="D233" s="3" t="s">
         <v>41</v>
@@ -10802,7 +10802,7 @@
         <v>12</v>
       </c>
       <c r="C234" s="2">
-        <v>196</v>
+        <v>223</v>
       </c>
       <c r="D234" s="3" t="s">
         <v>20</v>
@@ -10846,7 +10846,7 @@
         <v>14</v>
       </c>
       <c r="C235" s="2">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="D235" s="3" t="s">
         <v>22</v>
@@ -10890,7 +10890,7 @@
         <v>15</v>
       </c>
       <c r="C236" s="2">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="D236" s="3" t="s">
         <v>41</v>
@@ -10934,7 +10934,7 @@
         <v>16</v>
       </c>
       <c r="C237" s="2">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="D237" s="3" t="s">
         <v>30</v>
@@ -10978,7 +10978,7 @@
         <v>17</v>
       </c>
       <c r="C238" s="2">
-        <v>201</v>
+        <v>228</v>
       </c>
       <c r="D238" s="3" t="s">
         <v>41</v>
@@ -11022,7 +11022,7 @@
         <v>18</v>
       </c>
       <c r="C239" s="2">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="D239" s="3" t="s">
         <v>41</v>
@@ -11066,7 +11066,7 @@
         <v>19</v>
       </c>
       <c r="C240" s="2">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="D240" s="3" t="s">
         <v>39</v>
@@ -11110,7 +11110,7 @@
         <v>20</v>
       </c>
       <c r="C241" s="2">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="D241" s="3" t="s">
         <v>41</v>
@@ -11154,7 +11154,7 @@
         <v>21</v>
       </c>
       <c r="C242" s="2">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="D242" s="3" t="s">
         <v>41</v>
@@ -11198,7 +11198,7 @@
         <v>22</v>
       </c>
       <c r="C243" s="2">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="D243" s="3" t="s">
         <v>14</v>
@@ -11242,7 +11242,7 @@
         <v>23</v>
       </c>
       <c r="C244" s="2">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="D244" s="3" t="s">
         <v>20</v>
@@ -11286,7 +11286,7 @@
         <v>24</v>
       </c>
       <c r="C245" s="2">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="D245" s="3" t="s">
         <v>41</v>
@@ -11330,7 +11330,7 @@
         <v>1</v>
       </c>
       <c r="C246" s="2">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="D246" s="3" t="s">
         <v>14</v>
@@ -11374,7 +11374,7 @@
         <v>2</v>
       </c>
       <c r="C247" s="2">
-        <v>186</v>
+        <v>213</v>
       </c>
       <c r="D247" s="3" t="s">
         <v>30</v>
@@ -11418,7 +11418,7 @@
         <v>3</v>
       </c>
       <c r="C248" s="2">
-        <v>187</v>
+        <v>214</v>
       </c>
       <c r="D248" s="3" t="s">
         <v>40</v>
@@ -11462,7 +11462,7 @@
         <v>4</v>
       </c>
       <c r="C249" s="2">
-        <v>188</v>
+        <v>215</v>
       </c>
       <c r="D249" s="3" t="s">
         <v>14</v>
@@ -11506,7 +11506,7 @@
         <v>5</v>
       </c>
       <c r="C250" s="2">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="D250" s="3" t="s">
         <v>44</v>
@@ -11550,7 +11550,7 @@
         <v>6</v>
       </c>
       <c r="C251" s="2">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="D251" s="3" t="s">
         <v>40</v>
@@ -11594,7 +11594,7 @@
         <v>7</v>
       </c>
       <c r="C252" s="2">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="D252" s="3" t="s">
         <v>20</v>
@@ -11638,7 +11638,7 @@
         <v>8</v>
       </c>
       <c r="C253" s="2">
-        <v>192</v>
+        <v>219</v>
       </c>
       <c r="D253" s="3" t="s">
         <v>25</v>
@@ -11682,7 +11682,7 @@
         <v>9</v>
       </c>
       <c r="C254" s="2">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="D254" s="3" t="s">
         <v>14</v>
@@ -11726,7 +11726,7 @@
         <v>10</v>
       </c>
       <c r="C255" s="2">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="D255" s="3" t="s">
         <v>40</v>
@@ -11770,7 +11770,7 @@
         <v>11</v>
       </c>
       <c r="C256" s="2">
-        <v>195</v>
+        <v>222</v>
       </c>
       <c r="D256" s="3" t="s">
         <v>20</v>
@@ -11814,7 +11814,7 @@
         <v>12</v>
       </c>
       <c r="C257" s="2">
-        <v>196</v>
+        <v>223</v>
       </c>
       <c r="D257" s="3" t="s">
         <v>22</v>
@@ -11858,7 +11858,7 @@
         <v>13</v>
       </c>
       <c r="C258" s="2">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="D258" s="3" t="s">
         <v>14</v>
@@ -11902,7 +11902,7 @@
         <v>15</v>
       </c>
       <c r="C259" s="2">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="D259" s="3" t="s">
         <v>38</v>
@@ -11946,7 +11946,7 @@
         <v>16</v>
       </c>
       <c r="C260" s="2">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="D260" s="3" t="s">
         <v>14</v>
@@ -11990,7 +11990,7 @@
         <v>17</v>
       </c>
       <c r="C261" s="2">
-        <v>201</v>
+        <v>228</v>
       </c>
       <c r="D261" s="3" t="s">
         <v>18</v>
@@ -12034,7 +12034,7 @@
         <v>18</v>
       </c>
       <c r="C262" s="2">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="D262" s="3" t="s">
         <v>20</v>
@@ -12078,7 +12078,7 @@
         <v>19</v>
       </c>
       <c r="C263" s="2">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="D263" s="3" t="s">
         <v>14</v>
@@ -12122,7 +12122,7 @@
         <v>20</v>
       </c>
       <c r="C264" s="2">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="D264" s="3" t="s">
         <v>20</v>
@@ -12166,7 +12166,7 @@
         <v>21</v>
       </c>
       <c r="C265" s="2">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="D265" s="3" t="s">
         <v>14</v>
@@ -12210,7 +12210,7 @@
         <v>22</v>
       </c>
       <c r="C266" s="2">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="D266" s="3" t="s">
         <v>40</v>
@@ -12254,7 +12254,7 @@
         <v>23</v>
       </c>
       <c r="C267" s="2">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="D267" s="3" t="s">
         <v>14</v>
@@ -12298,7 +12298,7 @@
         <v>24</v>
       </c>
       <c r="C268" s="2">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="D268" s="3" t="s">
         <v>14</v>
@@ -12342,7 +12342,7 @@
         <v>1</v>
       </c>
       <c r="C269" s="2">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="D269" s="3" t="s">
         <v>22</v>
@@ -12386,7 +12386,7 @@
         <v>2</v>
       </c>
       <c r="C270" s="2">
-        <v>186</v>
+        <v>213</v>
       </c>
       <c r="D270" s="3" t="s">
         <v>14</v>
@@ -12430,7 +12430,7 @@
         <v>3</v>
       </c>
       <c r="C271" s="2">
-        <v>187</v>
+        <v>214</v>
       </c>
       <c r="D271" s="3" t="s">
         <v>22</v>
@@ -12474,7 +12474,7 @@
         <v>4</v>
       </c>
       <c r="C272" s="2">
-        <v>188</v>
+        <v>215</v>
       </c>
       <c r="D272" s="3" t="s">
         <v>30</v>
@@ -12518,7 +12518,7 @@
         <v>5</v>
       </c>
       <c r="C273" s="2">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="D273" s="3" t="s">
         <v>22</v>
@@ -12562,7 +12562,7 @@
         <v>6</v>
       </c>
       <c r="C274" s="2">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="D274" s="3" t="s">
         <v>22</v>
@@ -12606,7 +12606,7 @@
         <v>7</v>
       </c>
       <c r="C275" s="2">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="D275" s="3" t="s">
         <v>20</v>
@@ -12650,7 +12650,7 @@
         <v>8</v>
       </c>
       <c r="C276" s="2">
-        <v>192</v>
+        <v>219</v>
       </c>
       <c r="D276" s="3" t="s">
         <v>22</v>
@@ -12694,7 +12694,7 @@
         <v>9</v>
       </c>
       <c r="C277" s="2">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="D277" s="3" t="s">
         <v>46</v>
@@ -12738,7 +12738,7 @@
         <v>10</v>
       </c>
       <c r="C278" s="2">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="D278" s="3" t="s">
         <v>22</v>
@@ -12782,7 +12782,7 @@
         <v>11</v>
       </c>
       <c r="C279" s="2">
-        <v>195</v>
+        <v>222</v>
       </c>
       <c r="D279" s="3" t="s">
         <v>14</v>
@@ -12826,7 +12826,7 @@
         <v>12</v>
       </c>
       <c r="C280" s="2">
-        <v>196</v>
+        <v>223</v>
       </c>
       <c r="D280" s="3" t="s">
         <v>22</v>
@@ -12870,7 +12870,7 @@
         <v>13</v>
       </c>
       <c r="C281" s="2">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="D281" s="3" t="s">
         <v>20</v>
@@ -12914,7 +12914,7 @@
         <v>14</v>
       </c>
       <c r="C282" s="2">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="D282" s="3" t="s">
         <v>22</v>
@@ -12958,7 +12958,7 @@
         <v>16</v>
       </c>
       <c r="C283" s="2">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="D283" s="3" t="s">
         <v>14</v>
@@ -13002,7 +13002,7 @@
         <v>17</v>
       </c>
       <c r="C284" s="2">
-        <v>201</v>
+        <v>228</v>
       </c>
       <c r="D284" s="3" t="s">
         <v>22</v>
@@ -13046,7 +13046,7 @@
         <v>18</v>
       </c>
       <c r="C285" s="2">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="D285" s="3" t="s">
         <v>20</v>
@@ -13090,7 +13090,7 @@
         <v>19</v>
       </c>
       <c r="C286" s="2">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="D286" s="3" t="s">
         <v>22</v>
@@ -13134,7 +13134,7 @@
         <v>20</v>
       </c>
       <c r="C287" s="2">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="D287" s="3" t="s">
         <v>22</v>
@@ -13178,7 +13178,7 @@
         <v>21</v>
       </c>
       <c r="C288" s="2">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="D288" s="3" t="s">
         <v>41</v>
@@ -13222,7 +13222,7 @@
         <v>22</v>
       </c>
       <c r="C289" s="2">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="D289" s="3" t="s">
         <v>22</v>
@@ -13266,7 +13266,7 @@
         <v>23</v>
       </c>
       <c r="C290" s="2">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="D290" s="3" t="s">
         <v>25</v>
@@ -13310,7 +13310,7 @@
         <v>24</v>
       </c>
       <c r="C291" s="2">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="D291" s="3" t="s">
         <v>22</v>
@@ -13354,7 +13354,7 @@
         <v>25</v>
       </c>
       <c r="C292" s="2">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="D292" s="3" t="s">
         <v>39</v>
@@ -13398,7 +13398,7 @@
         <v>26</v>
       </c>
       <c r="C293" s="2">
-        <v>210</v>
+        <v>237</v>
       </c>
       <c r="D293" s="3" t="s">
         <v>22</v>
@@ -13442,7 +13442,7 @@
         <v>1</v>
       </c>
       <c r="C294" s="2">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="D294" s="3" t="s">
         <v>20</v>
@@ -13486,7 +13486,7 @@
         <v>2</v>
       </c>
       <c r="C295" s="2">
-        <v>186</v>
+        <v>213</v>
       </c>
       <c r="D295" s="3" t="s">
         <v>25</v>
@@ -13530,7 +13530,7 @@
         <v>3</v>
       </c>
       <c r="C296" s="2">
-        <v>187</v>
+        <v>214</v>
       </c>
       <c r="D296" s="3" t="s">
         <v>40</v>
@@ -13574,7 +13574,7 @@
         <v>4</v>
       </c>
       <c r="C297" s="2">
-        <v>188</v>
+        <v>215</v>
       </c>
       <c r="D297" s="3" t="s">
         <v>20</v>
@@ -13618,7 +13618,7 @@
         <v>5</v>
       </c>
       <c r="C298" s="2">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="D298" s="3" t="s">
         <v>48</v>
@@ -13662,7 +13662,7 @@
         <v>6</v>
       </c>
       <c r="C299" s="2">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="D299" s="3" t="s">
         <v>38</v>
@@ -13706,7 +13706,7 @@
         <v>7</v>
       </c>
       <c r="C300" s="2">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="D300" s="3" t="s">
         <v>14</v>
@@ -13750,7 +13750,7 @@
         <v>8</v>
       </c>
       <c r="C301" s="2">
-        <v>192</v>
+        <v>219</v>
       </c>
       <c r="D301" s="3" t="s">
         <v>20</v>
@@ -13794,7 +13794,7 @@
         <v>9</v>
       </c>
       <c r="C302" s="2">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="D302" s="3" t="s">
         <v>46</v>
@@ -13838,7 +13838,7 @@
         <v>10</v>
       </c>
       <c r="C303" s="2">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="D303" s="3" t="s">
         <v>20</v>
@@ -13882,7 +13882,7 @@
         <v>11</v>
       </c>
       <c r="C304" s="2">
-        <v>195</v>
+        <v>222</v>
       </c>
       <c r="D304" s="3" t="s">
         <v>20</v>
@@ -13926,7 +13926,7 @@
         <v>12</v>
       </c>
       <c r="C305" s="2">
-        <v>196</v>
+        <v>223</v>
       </c>
       <c r="D305" s="3" t="s">
         <v>20</v>
@@ -13970,7 +13970,7 @@
         <v>13</v>
       </c>
       <c r="C306" s="2">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="D306" s="3" t="s">
         <v>46</v>
@@ -14014,7 +14014,7 @@
         <v>14</v>
       </c>
       <c r="C307" s="2">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="D307" s="3" t="s">
         <v>20</v>
@@ -14058,7 +14058,7 @@
         <v>16</v>
       </c>
       <c r="C308" s="2">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="D308" s="3" t="s">
         <v>22</v>
@@ -14102,7 +14102,7 @@
         <v>17</v>
       </c>
       <c r="C309" s="2">
-        <v>201</v>
+        <v>228</v>
       </c>
       <c r="D309" s="3" t="s">
         <v>41</v>
@@ -14146,7 +14146,7 @@
         <v>18</v>
       </c>
       <c r="C310" s="2">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="D310" s="3" t="s">
         <v>20</v>
@@ -14190,7 +14190,7 @@
         <v>19</v>
       </c>
       <c r="C311" s="2">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="D311" s="3" t="s">
         <v>20</v>
@@ -14234,7 +14234,7 @@
         <v>20</v>
       </c>
       <c r="C312" s="2">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="D312" s="3" t="s">
         <v>25</v>
@@ -14278,7 +14278,7 @@
         <v>21</v>
       </c>
       <c r="C313" s="2">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="D313" s="3" t="s">
         <v>46</v>
@@ -14322,7 +14322,7 @@
         <v>22</v>
       </c>
       <c r="C314" s="2">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="D314" s="3" t="s">
         <v>20</v>
@@ -14366,7 +14366,7 @@
         <v>23</v>
       </c>
       <c r="C315" s="2">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="D315" s="3" t="s">
         <v>14</v>
@@ -14410,7 +14410,7 @@
         <v>24</v>
       </c>
       <c r="C316" s="2">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="D316" s="3" t="s">
         <v>46</v>
@@ -14454,7 +14454,7 @@
         <v>1</v>
       </c>
       <c r="C317" s="2">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="D317" s="3" t="s">
         <v>20</v>
@@ -14498,7 +14498,7 @@
         <v>2</v>
       </c>
       <c r="C318" s="2">
-        <v>186</v>
+        <v>213</v>
       </c>
       <c r="D318" s="3" t="s">
         <v>20</v>
@@ -14542,7 +14542,7 @@
         <v>3</v>
       </c>
       <c r="C319" s="2">
-        <v>187</v>
+        <v>214</v>
       </c>
       <c r="D319" s="3" t="s">
         <v>14</v>
@@ -14586,7 +14586,7 @@
         <v>4</v>
       </c>
       <c r="C320" s="2">
-        <v>188</v>
+        <v>215</v>
       </c>
       <c r="D320" s="3" t="s">
         <v>20</v>
@@ -14630,7 +14630,7 @@
         <v>5</v>
       </c>
       <c r="C321" s="2">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="D321" s="3" t="s">
         <v>22</v>
@@ -14674,7 +14674,7 @@
         <v>6</v>
       </c>
       <c r="C322" s="2">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="D322" s="3" t="s">
         <v>20</v>
@@ -14718,7 +14718,7 @@
         <v>7</v>
       </c>
       <c r="C323" s="2">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="D323" s="3" t="s">
         <v>20</v>
@@ -14762,7 +14762,7 @@
         <v>8</v>
       </c>
       <c r="C324" s="2">
-        <v>192</v>
+        <v>219</v>
       </c>
       <c r="D324" s="3" t="s">
         <v>20</v>
@@ -14806,7 +14806,7 @@
         <v>9</v>
       </c>
       <c r="C325" s="2">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="D325" s="3" t="s">
         <v>22</v>
@@ -14850,7 +14850,7 @@
         <v>10</v>
       </c>
       <c r="C326" s="2">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="D326" s="3" t="s">
         <v>18</v>
@@ -14894,7 +14894,7 @@
         <v>11</v>
       </c>
       <c r="C327" s="2">
-        <v>195</v>
+        <v>222</v>
       </c>
       <c r="D327" s="3" t="s">
         <v>20</v>
@@ -14938,7 +14938,7 @@
         <v>13</v>
       </c>
       <c r="C328" s="2">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="D328" s="3" t="s">
         <v>30</v>
@@ -14982,7 +14982,7 @@
         <v>14</v>
       </c>
       <c r="C329" s="2">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="D329" s="3" t="s">
         <v>14</v>
@@ -15026,7 +15026,7 @@
         <v>15</v>
       </c>
       <c r="C330" s="2">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="D330" s="3" t="s">
         <v>20</v>
@@ -15070,7 +15070,7 @@
         <v>16</v>
       </c>
       <c r="C331" s="2">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="D331" s="3" t="s">
         <v>25</v>
@@ -15114,7 +15114,7 @@
         <v>17</v>
       </c>
       <c r="C332" s="2">
-        <v>201</v>
+        <v>228</v>
       </c>
       <c r="D332" s="3" t="s">
         <v>20</v>
@@ -15158,7 +15158,7 @@
         <v>18</v>
       </c>
       <c r="C333" s="2">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="D333" s="3" t="s">
         <v>38</v>
@@ -15202,7 +15202,7 @@
         <v>19</v>
       </c>
       <c r="C334" s="2">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="D334" s="3" t="s">
         <v>20</v>
@@ -15246,7 +15246,7 @@
         <v>20</v>
       </c>
       <c r="C335" s="2">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="D335" s="3" t="s">
         <v>20</v>
@@ -15290,7 +15290,7 @@
         <v>21</v>
       </c>
       <c r="C336" s="2">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="D336" s="3" t="s">
         <v>20</v>
@@ -15334,7 +15334,7 @@
         <v>22</v>
       </c>
       <c r="C337" s="2">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="D337" s="3" t="s">
         <v>20</v>
@@ -15378,7 +15378,7 @@
         <v>23</v>
       </c>
       <c r="C338" s="2">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="D338" s="3" t="s">
         <v>20</v>
@@ -15422,7 +15422,7 @@
         <v>24</v>
       </c>
       <c r="C339" s="2">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="D339" s="3" t="s">
         <v>39</v>
@@ -15466,7 +15466,7 @@
         <v>25</v>
       </c>
       <c r="C340" s="2">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="D340" s="3" t="s">
         <v>14</v>
@@ -15510,7 +15510,7 @@
         <v>1</v>
       </c>
       <c r="C341" s="2">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="D341" s="3" t="s">
         <v>14</v>
@@ -15554,7 +15554,7 @@
         <v>2</v>
       </c>
       <c r="C342" s="2">
-        <v>186</v>
+        <v>213</v>
       </c>
       <c r="D342" s="3" t="s">
         <v>22</v>
@@ -15598,7 +15598,7 @@
         <v>3</v>
       </c>
       <c r="C343" s="2">
-        <v>187</v>
+        <v>214</v>
       </c>
       <c r="D343" s="3" t="s">
         <v>14</v>
@@ -15642,7 +15642,7 @@
         <v>4</v>
       </c>
       <c r="C344" s="2">
-        <v>188</v>
+        <v>215</v>
       </c>
       <c r="D344" s="3" t="s">
         <v>14</v>
@@ -15686,7 +15686,7 @@
         <v>5</v>
       </c>
       <c r="C345" s="2">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="D345" s="3" t="s">
         <v>22</v>
@@ -15730,7 +15730,7 @@
         <v>6</v>
       </c>
       <c r="C346" s="2">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="D346" s="3" t="s">
         <v>14</v>
@@ -15774,7 +15774,7 @@
         <v>7</v>
       </c>
       <c r="C347" s="2">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="D347" s="3" t="s">
         <v>20</v>
@@ -15818,7 +15818,7 @@
         <v>8</v>
       </c>
       <c r="C348" s="2">
-        <v>192</v>
+        <v>219</v>
       </c>
       <c r="D348" s="3" t="s">
         <v>14</v>
@@ -15862,7 +15862,7 @@
         <v>9</v>
       </c>
       <c r="C349" s="2">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="D349" s="3" t="s">
         <v>14</v>
@@ -15906,7 +15906,7 @@
         <v>10</v>
       </c>
       <c r="C350" s="2">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="D350" s="3" t="s">
         <v>14</v>
@@ -15950,7 +15950,7 @@
         <v>11</v>
       </c>
       <c r="C351" s="2">
-        <v>195</v>
+        <v>222</v>
       </c>
       <c r="D351" s="3" t="s">
         <v>14</v>
@@ -15994,7 +15994,7 @@
         <v>12</v>
       </c>
       <c r="C352" s="2">
-        <v>196</v>
+        <v>223</v>
       </c>
       <c r="D352" s="3" t="s">
         <v>18</v>
@@ -16038,7 +16038,7 @@
         <v>13</v>
       </c>
       <c r="C353" s="2">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="D353" s="3" t="s">
         <v>25</v>
@@ -16082,7 +16082,7 @@
         <v>14</v>
       </c>
       <c r="C354" s="2">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="D354" s="3" t="s">
         <v>14</v>
@@ -16126,7 +16126,7 @@
         <v>16</v>
       </c>
       <c r="C355" s="2">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="D355" s="3" t="s">
         <v>39</v>
@@ -16170,7 +16170,7 @@
         <v>17</v>
       </c>
       <c r="C356" s="2">
-        <v>201</v>
+        <v>228</v>
       </c>
       <c r="D356" s="3" t="s">
         <v>14</v>
@@ -16214,7 +16214,7 @@
         <v>18</v>
       </c>
       <c r="C357" s="2">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="D357" s="3" t="s">
         <v>25</v>
@@ -16258,7 +16258,7 @@
         <v>19</v>
       </c>
       <c r="C358" s="2">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="D358" s="3" t="s">
         <v>14</v>
@@ -16302,7 +16302,7 @@
         <v>20</v>
       </c>
       <c r="C359" s="2">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="D359" s="3" t="s">
         <v>14</v>
@@ -16346,7 +16346,7 @@
         <v>21</v>
       </c>
       <c r="C360" s="2">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="D360" s="3" t="s">
         <v>20</v>
@@ -16390,7 +16390,7 @@
         <v>22</v>
       </c>
       <c r="C361" s="2">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="D361" s="3" t="s">
         <v>20</v>
@@ -16434,7 +16434,7 @@
         <v>23</v>
       </c>
       <c r="C362" s="2">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="D362" s="3" t="s">
         <v>14</v>
@@ -16478,7 +16478,7 @@
         <v>24</v>
       </c>
       <c r="C363" s="2">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="D363" s="3" t="s">
         <v>22</v>
@@ -16522,7 +16522,7 @@
         <v>1</v>
       </c>
       <c r="C364" s="2">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="D364" s="3" t="s">
         <v>20</v>
@@ -16566,7 +16566,7 @@
         <v>2</v>
       </c>
       <c r="C365" s="2">
-        <v>186</v>
+        <v>213</v>
       </c>
       <c r="D365" s="3" t="s">
         <v>25</v>
@@ -16610,7 +16610,7 @@
         <v>3</v>
       </c>
       <c r="C366" s="2">
-        <v>187</v>
+        <v>214</v>
       </c>
       <c r="D366" s="3" t="s">
         <v>25</v>
@@ -16654,7 +16654,7 @@
         <v>4</v>
       </c>
       <c r="C367" s="2">
-        <v>188</v>
+        <v>215</v>
       </c>
       <c r="D367" s="3" t="s">
         <v>25</v>
@@ -16698,7 +16698,7 @@
         <v>5</v>
       </c>
       <c r="C368" s="2">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="D368" s="3" t="s">
         <v>22</v>
@@ -16742,7 +16742,7 @@
         <v>6</v>
       </c>
       <c r="C369" s="2">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="D369" s="3" t="s">
         <v>22</v>
@@ -16786,7 +16786,7 @@
         <v>7</v>
       </c>
       <c r="C370" s="2">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="D370" s="3" t="s">
         <v>25</v>
@@ -16830,7 +16830,7 @@
         <v>8</v>
       </c>
       <c r="C371" s="2">
-        <v>192</v>
+        <v>219</v>
       </c>
       <c r="D371" s="3" t="s">
         <v>14</v>
@@ -16874,7 +16874,7 @@
         <v>9</v>
       </c>
       <c r="C372" s="2">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="D372" s="3" t="s">
         <v>25</v>
@@ -16918,7 +16918,7 @@
         <v>10</v>
       </c>
       <c r="C373" s="2">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="D373" s="3" t="s">
         <v>40</v>
@@ -16962,7 +16962,7 @@
         <v>11</v>
       </c>
       <c r="C374" s="2">
-        <v>195</v>
+        <v>222</v>
       </c>
       <c r="D374" s="3" t="s">
         <v>25</v>
@@ -17006,7 +17006,7 @@
         <v>12</v>
       </c>
       <c r="C375" s="2">
-        <v>196</v>
+        <v>223</v>
       </c>
       <c r="D375" s="3" t="s">
         <v>25</v>
@@ -17050,7 +17050,7 @@
         <v>13</v>
       </c>
       <c r="C376" s="2">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="D376" s="3" t="s">
         <v>22</v>
@@ -17094,7 +17094,7 @@
         <v>15</v>
       </c>
       <c r="C377" s="2">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="D377" s="3" t="s">
         <v>30</v>
@@ -17138,7 +17138,7 @@
         <v>16</v>
       </c>
       <c r="C378" s="2">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="D378" s="3" t="s">
         <v>25</v>
@@ -17182,7 +17182,7 @@
         <v>17</v>
       </c>
       <c r="C379" s="2">
-        <v>201</v>
+        <v>228</v>
       </c>
       <c r="D379" s="3" t="s">
         <v>39</v>
@@ -17226,7 +17226,7 @@
         <v>18</v>
       </c>
       <c r="C380" s="2">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="D380" s="3" t="s">
         <v>25</v>
@@ -17270,7 +17270,7 @@
         <v>19</v>
       </c>
       <c r="C381" s="2">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="D381" s="3" t="s">
         <v>20</v>
@@ -17314,7 +17314,7 @@
         <v>20</v>
       </c>
       <c r="C382" s="2">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="D382" s="3" t="s">
         <v>25</v>
@@ -17358,7 +17358,7 @@
         <v>21</v>
       </c>
       <c r="C383" s="2">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="D383" s="3" t="s">
         <v>20</v>
@@ -17402,7 +17402,7 @@
         <v>22</v>
       </c>
       <c r="C384" s="2">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="D384" s="3" t="s">
         <v>25</v>
@@ -17446,7 +17446,7 @@
         <v>23</v>
       </c>
       <c r="C385" s="2">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="D385" s="3" t="s">
         <v>20</v>
@@ -17490,7 +17490,7 @@
         <v>24</v>
       </c>
       <c r="C386" s="2">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="D386" s="3" t="s">
         <v>25</v>
@@ -17534,7 +17534,7 @@
         <v>1</v>
       </c>
       <c r="C387" s="2">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="D387" s="3" t="s">
         <v>38</v>
@@ -17578,7 +17578,7 @@
         <v>2</v>
       </c>
       <c r="C388" s="2">
-        <v>186</v>
+        <v>213</v>
       </c>
       <c r="D388" s="3" t="s">
         <v>30</v>
@@ -17622,7 +17622,7 @@
         <v>3</v>
       </c>
       <c r="C389" s="2">
-        <v>187</v>
+        <v>214</v>
       </c>
       <c r="D389" s="3" t="s">
         <v>14</v>
@@ -17666,7 +17666,7 @@
         <v>4</v>
       </c>
       <c r="C390" s="2">
-        <v>188</v>
+        <v>215</v>
       </c>
       <c r="D390" s="3" t="s">
         <v>30</v>
@@ -17710,7 +17710,7 @@
         <v>5</v>
       </c>
       <c r="C391" s="2">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="D391" s="3" t="s">
         <v>22</v>
@@ -17754,7 +17754,7 @@
         <v>6</v>
       </c>
       <c r="C392" s="2">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="D392" s="3" t="s">
         <v>41</v>
@@ -17798,7 +17798,7 @@
         <v>7</v>
       </c>
       <c r="C393" s="2">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="D393" s="3" t="s">
         <v>30</v>
@@ -17842,7 +17842,7 @@
         <v>8</v>
       </c>
       <c r="C394" s="2">
-        <v>192</v>
+        <v>219</v>
       </c>
       <c r="D394" s="3" t="s">
         <v>14</v>
@@ -17886,7 +17886,7 @@
         <v>9</v>
       </c>
       <c r="C395" s="2">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="D395" s="3" t="s">
         <v>30</v>
@@ -17930,7 +17930,7 @@
         <v>10</v>
       </c>
       <c r="C396" s="2">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="D396" s="3" t="s">
         <v>20</v>
@@ -17974,7 +17974,7 @@
         <v>11</v>
       </c>
       <c r="C397" s="2">
-        <v>195</v>
+        <v>222</v>
       </c>
       <c r="D397" s="3" t="s">
         <v>30</v>
@@ -18018,7 +18018,7 @@
         <v>13</v>
       </c>
       <c r="C398" s="2">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="D398" s="3" t="s">
         <v>30</v>
@@ -18062,7 +18062,7 @@
         <v>14</v>
       </c>
       <c r="C399" s="2">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="D399" s="3" t="s">
         <v>39</v>
@@ -18106,7 +18106,7 @@
         <v>15</v>
       </c>
       <c r="C400" s="2">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="D400" s="3" t="s">
         <v>30</v>
@@ -18150,7 +18150,7 @@
         <v>16</v>
       </c>
       <c r="C401" s="2">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="D401" s="3" t="s">
         <v>30</v>
@@ -18194,7 +18194,7 @@
         <v>17</v>
       </c>
       <c r="C402" s="2">
-        <v>201</v>
+        <v>228</v>
       </c>
       <c r="D402" s="3" t="s">
         <v>14</v>
@@ -18238,7 +18238,7 @@
         <v>18</v>
       </c>
       <c r="C403" s="2">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="D403" s="3" t="s">
         <v>30</v>
@@ -18282,7 +18282,7 @@
         <v>19</v>
       </c>
       <c r="C404" s="2">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="D404" s="3" t="s">
         <v>25</v>
@@ -18326,7 +18326,7 @@
         <v>20</v>
       </c>
       <c r="C405" s="2">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="D405" s="3" t="s">
         <v>20</v>
@@ -18370,7 +18370,7 @@
         <v>21</v>
       </c>
       <c r="C406" s="2">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="D406" s="3" t="s">
         <v>18</v>
@@ -18414,7 +18414,7 @@
         <v>22</v>
       </c>
       <c r="C407" s="2">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="D407" s="3" t="s">
         <v>30</v>
@@ -18458,7 +18458,7 @@
         <v>23</v>
       </c>
       <c r="C408" s="2">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="D408" s="3" t="s">
         <v>22</v>
@@ -18502,7 +18502,7 @@
         <v>24</v>
       </c>
       <c r="C409" s="2">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="D409" s="3" t="s">
         <v>30</v>
@@ -18546,7 +18546,7 @@
         <v>25</v>
       </c>
       <c r="C410" s="2">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="D410" s="3" t="s">
         <v>14</v>
@@ -18590,7 +18590,7 @@
         <v>1</v>
       </c>
       <c r="C411" s="2">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="D411" s="3" t="s">
         <v>14</v>
@@ -18634,7 +18634,7 @@
         <v>2</v>
       </c>
       <c r="C412" s="2">
-        <v>186</v>
+        <v>213</v>
       </c>
       <c r="D412" s="3" t="s">
         <v>20</v>
@@ -18678,7 +18678,7 @@
         <v>3</v>
       </c>
       <c r="C413" s="2">
-        <v>187</v>
+        <v>214</v>
       </c>
       <c r="D413" s="3" t="s">
         <v>20</v>
@@ -18722,7 +18722,7 @@
         <v>4</v>
       </c>
       <c r="C414" s="2">
-        <v>188</v>
+        <v>215</v>
       </c>
       <c r="D414" s="3" t="s">
         <v>14</v>
@@ -18766,7 +18766,7 @@
         <v>5</v>
       </c>
       <c r="C415" s="2">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="D415" s="3" t="s">
         <v>22</v>
@@ -18810,7 +18810,7 @@
         <v>6</v>
       </c>
       <c r="C416" s="2">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="D416" s="3" t="s">
         <v>25</v>
@@ -18854,7 +18854,7 @@
         <v>7</v>
       </c>
       <c r="C417" s="2">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="D417" s="3" t="s">
         <v>20</v>
@@ -18898,7 +18898,7 @@
         <v>8</v>
       </c>
       <c r="C418" s="2">
-        <v>192</v>
+        <v>219</v>
       </c>
       <c r="D418" s="3" t="s">
         <v>45</v>
@@ -18942,7 +18942,7 @@
         <v>9</v>
       </c>
       <c r="C419" s="2">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="D419" s="3" t="s">
         <v>20</v>
@@ -18986,7 +18986,7 @@
         <v>10</v>
       </c>
       <c r="C420" s="2">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="D420" s="3" t="s">
         <v>42</v>
@@ -19030,7 +19030,7 @@
         <v>11</v>
       </c>
       <c r="C421" s="2">
-        <v>195</v>
+        <v>222</v>
       </c>
       <c r="D421" s="3" t="s">
         <v>43</v>
@@ -19074,7 +19074,7 @@
         <v>12</v>
       </c>
       <c r="C422" s="2">
-        <v>196</v>
+        <v>223</v>
       </c>
       <c r="D422" s="3" t="s">
         <v>20</v>
@@ -19118,7 +19118,7 @@
         <v>13</v>
       </c>
       <c r="C423" s="2">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="D423" s="3" t="s">
         <v>20</v>
@@ -19162,7 +19162,7 @@
         <v>14</v>
       </c>
       <c r="C424" s="2">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="D424" s="3" t="s">
         <v>20</v>
@@ -19206,7 +19206,7 @@
         <v>16</v>
       </c>
       <c r="C425" s="2">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="D425" s="3" t="s">
         <v>20</v>
@@ -19250,7 +19250,7 @@
         <v>17</v>
       </c>
       <c r="C426" s="2">
-        <v>201</v>
+        <v>228</v>
       </c>
       <c r="D426" s="3" t="s">
         <v>20</v>
@@ -19294,7 +19294,7 @@
         <v>18</v>
       </c>
       <c r="C427" s="2">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="D427" s="3" t="s">
         <v>30</v>
@@ -19338,7 +19338,7 @@
         <v>19</v>
       </c>
       <c r="C428" s="2">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="D428" s="3" t="s">
         <v>20</v>
@@ -19382,7 +19382,7 @@
         <v>20</v>
       </c>
       <c r="C429" s="2">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="D429" s="3" t="s">
         <v>42</v>
@@ -19426,7 +19426,7 @@
         <v>21</v>
       </c>
       <c r="C430" s="2">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="D430" s="3" t="s">
         <v>20</v>
@@ -19470,7 +19470,7 @@
         <v>22</v>
       </c>
       <c r="C431" s="2">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="D431" s="3" t="s">
         <v>40</v>
@@ -19514,7 +19514,7 @@
         <v>23</v>
       </c>
       <c r="C432" s="2">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="D432" s="3" t="s">
         <v>20</v>
@@ -19558,7 +19558,7 @@
         <v>24</v>
       </c>
       <c r="C433" s="2">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="D433" s="3" t="s">
         <v>41</v>
